--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7329727286.035846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004434745332534042</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1351957565628731</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.528104669612692</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.2656601490456781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.528104669612692</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4589381972.231914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004404599273696517</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.155614845832578</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.280962339793514</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.155614845832578</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5111371925.572441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003156020435440038</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.794455664239476</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9655509367159355</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.794455664239476</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4923120937.77533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004601826876293329</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.568389868346061</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.789027042332628</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.568389868346061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5376073599.154065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002874316254862889</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.291084019757019</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8163140728755669</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.291084019757019</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7172169710.968686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.000922991809445464</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.806270468194728</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9603911785192701</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.806270468194728</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4881472176.136302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003416878161235505</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.708349764926789</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9299434243776323</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.708349764926789</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6040931168.954226</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005532189502564388</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.047288477737734</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9383675734264204</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-8.047288477737734</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3799579561.794033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004935881177637834</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1193059985744059</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.152177721854263</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1980921417438786</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.152177721854263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3271350201.829978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001368112813948749</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.150614819315777</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6982088115296977</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.150614819315777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8865568953.967632</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00213694533360125</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.273540484391924</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9552877696442439</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.273540484391924</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6623428274.267139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003603457180693867</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.7275526171641</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.000052126432469</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.7275526171641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7633707456.135221</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002478838889279725</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.438500375418662</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8076978769183057</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.438500375418662</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6545310493.044571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004659244524928254</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.441875500582186</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9542469511131783</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.441875500582186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5958495460.534855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004447503184394535</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.250276951892043</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8828440528120894</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.250276951892043</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4935053093.206986</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002799798377172882</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.756516463257267</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9562433264004108</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.756516463257267</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5731369050.867816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001164132850422029</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.131427974733555</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.969617489812615</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.131427974733555</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4440473019.863754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002276140382391595</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9508929963047287</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.765306165586937</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.220470292162888</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.765306165586937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5836115447.55206</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.000989368320904345</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.73695160248804</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8148983869859849</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.73695160248804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5794819820.152584</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00605278668288712</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9464492761606161</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.371315870859563</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.120745020810724</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.371315870859563</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4695300890.165211</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005094700864758004</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.283038612719087</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8883184469527914</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.283038612719087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7243926846.540739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001339903238138783</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9653144771838119</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.69450016666967</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.212572186152623</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.69450016666967</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7777652037.997109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003543792958568473</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.286202476560335</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.033129585496167</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.286202476560335</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4700603994.923629</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003001266972576318</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.819536121440075</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8715614044286919</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.819536121440075</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5078268950.990704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001444151776304402</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.590839021872752</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7977440542297405</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.590839021872752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6484655603.308406</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.00264405710554443</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.152983263111261</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.205326758986389</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.3121536047979652</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.205326758986389</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9168183732.709019</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004579420411343909</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.474437721975082</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8271490351487936</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.474437721975082</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5620230645.554674</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00129057541379758</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.904988695134366</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9748109431246316</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.904988695134366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8081424017.928169</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003449047298041382</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.317779758072321</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8211200464805326</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.317779758072321</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5629350627.227025</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003037225664141828</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.832491289855743</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9300299324284279</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.832491289855743</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5120634210.094502</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001354875162477132</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2864020753264375</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.046284071582403</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.5447661416977796</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.046284071582403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6919845851.552044</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002918099474867558</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.275356302317067</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8100555017743317</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.275356302317067</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7583659456.694567</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004458928378835289</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8552147784577594</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6004727951.463651</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002424750252086858</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.831208061937916</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9572819743463259</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-5.831208061937916</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7537190059.384078</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003098774974141558</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.755803601661394</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9656759111614334</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.755803601661394</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4409962662.388461</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004992364530515981</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3677420866830923</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.932547965528659</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7486489032006847</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.932547965528659</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3773905687.574317</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004892829250211996</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.099453819680318</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8895720860751762</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.099453819680318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5768710715.28828</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002018674257649237</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.031783866616511</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8872444056788165</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.031783866616511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6075700075.672515</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004602110547551554</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.990072105864806</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.987974495336566</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.990072105864806</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6783305816.817307</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001457387595678532</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.202261869051116</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.8918034842779523</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.202261869051116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6081261196.584705</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004141170286701204</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.69754593740416</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9839429287022861</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.69754593740416</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5049836294.336117</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004276997176711846</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.300921458644281</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.8995697907510229</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.300921458644281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7474030828.384054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002338346760935181</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.87935429741338</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9084085494705972</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.87935429741338</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4388895418.375029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001637980660288528</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.082573148703586</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9583614708794862</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.082573148703586</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9511123671.634987</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005259861583720588</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.784321201250485</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7826530691065947</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.784321201250485</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9445593836.357616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002797347279754408</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9243876103174683</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.098431599063674</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.19531982483548</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-4.098431599063674</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5304843803.849957</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003340163897731755</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.227266660340776</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.97879793045256</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.227266660340776</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3776344827.443278</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004638363167667622</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.337604875095873</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7865552533807361</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.337604875095873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5476255910.81638</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002783496108193922</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.872648550573189</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9839429287022861</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.872648550573189</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5122681208.489673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004517891764583583</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2897446725060277</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.515404296457045</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.536564932709143</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.515404296457045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5927537813.679008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001347189190204603</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.113902384631825</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8318440600078004</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.113902384631825</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5633243123.893053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002793615204317765</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.196324903210073</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9006737964185018</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.196324903210073</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5457993956.494658</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003563949785991119</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8376737718073809</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.125506919090166</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.02427788547845</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.125506919090166</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7432063642.410511</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004008069366116345</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.959375996731849</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.172361382816204</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.244631276839681</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.172361382816204</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4176234180.784628</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002515350059961096</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.872995972818304</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9405259764829244</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.872995972818304</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5285739344.702375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003432942762472151</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.757253597323366</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8389332295087089</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.757253597323366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4867883295.514005</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002860969429607682</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.0573776474714</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7356340671970052</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.0573776474714</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6594641424.885223</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003045706391734366</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.721524762377746</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.846105632283586</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.721524762377746</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4236379109.326856</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003075777277459994</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.059349129006026</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8210220630790398</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.059349129006026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7428144119.307145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003803115679100634</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.853136327662744</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9490257362650438</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.853136327662744</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4721067667.925535</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003950649843124083</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.762549254699939</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8565638340222465</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.762549254699939</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8681410181.183039</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00580725814204751</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.143486274344565</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.910549614058792</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.143486274344565</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4882647146.359925</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003927583760256336</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.97691010051135</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.759220342364847</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.233875686992927</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.759220342364847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5570388262.327884</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005133649643043768</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.250352373485277</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.01280826493097</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.250352373485277</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5312902741.751012</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002991625172010702</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.795495692393565</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8589278266163348</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.795495692393565</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6778123392.766636</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00446958671540143</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.267320716273</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.926645257099142</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.267320716273</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6669336688.421903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00255888281283966</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.625954602310097</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6995156330999052</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.625954602310097</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6394653364.232738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001184373953293422</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.872636726660696</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.3779644730092272</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.872636726660696</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6079017601.967261</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003094241446297671</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.61645503217176</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8816720995516321</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.61645503217176</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4687064256.474537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003070194690474375</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8.132347156901774</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8552618129130806</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-8.132347156901774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7022688432.553399</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001780678278776122</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8.176150166140722</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.097493872383731</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-8.176150166140722</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5132845475.988162</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001202577068975412</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.818666468350751</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9717064814703493</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.818666468350751</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6096660928.894635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00473481757262603</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.117428472059411</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8542403897666835</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-4.117428472059411</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7086648122.133828</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003507829285754643</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.288595693145914</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7686640741557704</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.288595693145914</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5446489829.498931</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002650159485529385</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.536860323633303</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8647397633311787</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.536860323633303</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5583543588.951151</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005578416999783109</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.876897196585351</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9899434884612772</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.876897196585351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5361917417.483968</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003402304174726476</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.836424016018648</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9310114132846465</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.836424016018648</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6545913203.983241</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001630563217504597</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.104429605775415</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9149046486683328</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.104429605775415</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7599848833.790918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002193601103083772</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.240027595543649</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.744857151624428</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.4500070434656611</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.744857151624428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6205288315.093089</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003476763020349067</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.105416894407485</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9979015442400562</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.105416894407485</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6553164809.463809</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004281125787963217</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.916396646721166</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9394688038014253</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.916396646721166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9385928703.662432</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002926890874472797</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.37774896283821</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7915419330511365</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.37774896283821</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4797060957.787363</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005295765685487655</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.154529077892011</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9490257362650438</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.154529077892011</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4249748302.04154</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003359438657800382</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.699797754181708</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8862598435502551</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.699797754181708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5803955796.520426</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002332310494197025</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1848324814261511</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.02282582285408</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.381948885733465</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.02282582285408</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4761656286.832875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001486049604272936</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3042309757972561</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.190567710545976</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.5574972604281049</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.190567710545976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8056188945.081861</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004793539379894016</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.11466837633563</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8270517660206952</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.11466837633563</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7320209129.157723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004807619936277037</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.864723709399152</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8962944953515116</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.864723709399152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5831595305.318403</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00317224305895364</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.729208523447094</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9458366451926892</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.729208523447094</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6027333095.289511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003030561568633897</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.704561430419453</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8293543749534795</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.704561430419453</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3416079077.282373</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002687726400187991</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.3772329298452363</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.832802982936402</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.773843607400062</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.832802982936402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6814322477.626888</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00145684011884629</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.464913433450464</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.857816987210907</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.464913433450464</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7344338992.966779</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001034589905469296</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.231991328780824</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.042703952068015</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.231991328780824</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7615543508.670199</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002689432641329245</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.115280731185844</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.8873350765511221</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.115280731185844</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>10013306423.88003</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003350055553398701</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.256326691438865</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8520522514887359</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.256326691438865</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7241118447.663916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00552646227728694</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.940888099796256</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.896204730922456</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.940888099796256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7233292022.934181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004570991919824154</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.57589069162333</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8113309105493003</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.57589069162333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3018540628.626942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005983225701582338</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.229905005479133</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8973577047006862</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.229905005479133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4071216780.610577</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003563101962104314</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5491410925000428</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.691005704225328</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7698513072997901</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.691005704225328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8204104136.598278</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001672086465891578</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9641197856072611</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.043886690571353</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.207372665181927</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.043886690571353</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7329727286.035846</v>
+        <v>2458436067.713171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004434745332534042</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.1094392274462869</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03175424247817887</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1229218090.857898</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4589381972.231914</v>
+        <v>2635986426.113316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004404599273696517</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1769989275107353</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04838523932305682</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1317993351.310648</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5111371925.572441</v>
+        <v>3264412925.969068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003156020435440038</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1403015248969375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03039341068312781</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1632206424.770184</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4923120937.77533</v>
+        <v>4103173517.995293</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004601826876293329</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1109078101723285</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0461988659961966</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2051586755.708133</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5376073599.154065</v>
+        <v>1897868830.700137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002874316254862889</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>0.1393935513939126</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05277617136196187</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>948934455.6584566</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7172169710.968686</v>
+        <v>1930267196.471051</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000922991809445464</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>0.08607093245495592</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04310332485678802</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>965133665.8770958</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2809312858.752296</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1981197011105551</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02693183968028647</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4881472176.136302</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003416878161235505</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+      <c r="J8" t="n">
+        <v>1404656467.152792</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6040931168.954226</v>
+        <v>2201076806.080257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005532189502564388</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1533556898878306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02410854477701655</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1100538401.515891</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3799579561.794033</v>
+        <v>5916252411.923697</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004935881177637834</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2103248407255426</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03405859099813557</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2958126375.916579</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3271350201.829978</v>
+        <v>4204788211.213644</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001368112813948749</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1734941746676882</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03567404061117493</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2102394132.375719</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8865568953.967632</v>
+        <v>2789345965.259657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00213694533360125</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+        <v>0.197058932197836</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03507428548711403</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1394672981.1108</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6623428274.267139</v>
+        <v>4464564653.127572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003603457180693867</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.08203125817852711</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02361309363553</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2232282357.635618</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7633707456.135221</v>
+        <v>3305932384.311277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002478838889279725</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+        <v>0.1618859785903502</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03355977377257434</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1652966204.158881</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6545310493.044571</v>
+        <v>1178258298.320037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004659244524928254</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.08851302414194571</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03616059241048201</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>589129161.4598742</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2778804943.774283</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.079835271418865</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03230417476643956</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5958495460.534855</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.004447503184394535</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
+      <c r="J16" t="n">
+        <v>1389402477.49179</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4935053093.206986</v>
+        <v>4174033170.977697</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002799798377172882</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1202676131282979</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04257613087437041</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2087016611.225858</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5731369050.867816</v>
+        <v>3582917886.29879</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001164132850422029</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
+        <v>0.1504135393334785</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03029604619767816</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1791458930.899239</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4440473019.863754</v>
+        <v>1252691519.825645</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002276140382391595</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1864812074184752</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01677234997839008</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>626345850.3981891</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5836115447.55206</v>
+        <v>2596225519.500026</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000989368320904345</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1024265610861751</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02107896807468741</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1298112722.339967</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5794819820.152584</v>
+        <v>1930019022.227493</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00605278668288712</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+        <v>0.08790163399308151</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02813952014697849</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>965009553.4399555</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4695300890.165211</v>
+        <v>2746219584.827031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005094700864758004</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1230866934964319</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05518435550715886</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1373109868.900574</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7243926846.540739</v>
+        <v>1513689375.369474</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001339903238138783</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1679292871152111</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03468429786836379</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>756844671.032195</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7777652037.997109</v>
+        <v>2520538084.146882</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003543792958568473</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
+        <v>0.149681487958802</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03117876907320704</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1260269109.327486</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4700603994.923629</v>
+        <v>978267545.2160425</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003001266972576318</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+        <v>0.1221149049005606</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01919236974625036</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>489133841.4115531</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5078268950.990704</v>
+        <v>1222987142.065315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001444151776304402</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08546084648217875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03884050259928536</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>611493597.4621013</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6484655603.308406</v>
+        <v>3139009748.384805</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00264405710554443</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1125853149981581</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01710544401119489</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1569504926.872574</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9168183732.709019</v>
+        <v>3714943956.897671</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004579420411343909</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.1126180610727952</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04495870215629567</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1857472051.447009</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5808717594.139717</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.101544171800887</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0449013461404098</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5620230645.554674</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00129057541379758</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2904358688.02619</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8081424017.928169</v>
+        <v>1878789106.025434</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003449047298041382</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
+        <v>0.1197188613531794</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03941807068521059</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>939394576.4214302</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5629350627.227025</v>
+        <v>946823750.645076</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003037225664141828</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
+        <v>0.06771147335409579</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04290198500044794</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>473411886.0830061</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5120634210.094502</v>
+        <v>1336079478.89649</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001354875162477132</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09864885666594289</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03439183581443063</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>668039773.5739634</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6919845851.552044</v>
+        <v>3030174474.498534</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002918099474867558</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1413365431884991</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05717846169551068</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>4</v>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1515087230.05723</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7583659456.694567</v>
+        <v>1531979782.529495</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004458928378835289</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
+        <v>0.1131033378308422</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02048512558476855</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>765989841.4805019</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6004727951.463651</v>
+        <v>986025013.7355906</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002424750252086858</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
+        <v>0.09018699460792769</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03449099678484274</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>493012528.2629215</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7537190059.384078</v>
+        <v>2729158395.955779</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003098774974141558</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
+        <v>0.129727534246642</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01844692465183494</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1364579201.345072</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4409962662.388461</v>
+        <v>2299695988.472673</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004992364530515981</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.09263131681309571</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03957583064214737</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1149848062.494363</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3773905687.574317</v>
+        <v>2076103757.728495</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004892829250211996</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08512579285375148</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03353834464787771</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1038051846.490445</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5768710715.28828</v>
+        <v>1393626147.279876</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002018674257649237</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1241680955670943</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0284130856015256</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>696813159.9473598</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6075700075.672515</v>
+        <v>1442472901.980386</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004602110547551554</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1268573325390521</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04084178916444436</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>721236431.3164599</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6783305816.817307</v>
+        <v>2416877155.009864</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001457387595678532</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1168181078916425</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03394797640184002</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1208438610.700047</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6081261196.584705</v>
+        <v>2841602841.639598</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004141170286701204</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
+        <v>0.1084197038556419</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0421916825907422</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1420801369.902494</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5049836294.336117</v>
+        <v>2339616164.200083</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004276997176711846</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
+        <v>0.1824915187018233</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01644575296990518</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1169808146.609908</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7474030828.384054</v>
+        <v>1753553043.639551</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002338346760935181</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
+        <v>0.06903501469583705</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02614661898230599</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>876776578.7235171</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4388895418.375029</v>
+        <v>1930724756.471226</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001637980660288528</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.190733258453077</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04799120018532879</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>965362361.8634161</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9511123671.634987</v>
+        <v>4493066794.915118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005259861583720588</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.1487193739463364</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05849178091401792</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2246533394.976211</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9445593836.357616</v>
+        <v>3235879546.531709</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002797347279754408</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1516201669605996</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05318161307836632</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1617939728.755004</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5304843803.849957</v>
+        <v>4682109770.178077</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003340163897731755</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.1020635988544141</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03106898118651459</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2341054879.549719</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3776344827.443278</v>
+        <v>1242280939.976528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004638363167667622</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1302079213575907</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03150331067097645</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>621140541.7368587</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5476255910.81638</v>
+        <v>3941011807.279918</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002783496108193922</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
+        <v>0.145408229622444</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03962864604678139</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1970505896.185524</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5122681208.489673</v>
+        <v>1543074947.873626</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004517891764583583</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1216499989602449</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05034055792052183</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>771537469.7374573</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5927537813.679008</v>
+        <v>5259983561.546889</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001347189190204603</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
+        <v>0.09420280195980681</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05527360646171617</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2629991762.835899</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3290505963.928143</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1770819668350241</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02291280261475087</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>5</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5633243123.893053</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.002793615204317765</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
+      <c r="J53" t="n">
+        <v>1645252994.061264</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5457993956.494658</v>
+        <v>4292589738.717829</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003563949785991119</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1094816293361449</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03581479521753693</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2146294956.128423</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7432063642.410511</v>
+        <v>4239138326.779191</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004008069366116345</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
+        <v>0.2201034308162293</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03178672655855103</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2119569148.618819</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4176234180.784628</v>
+        <v>1764646505.436212</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002515350059961096</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.1222284352883813</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04817689423276293</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>882323255.6068619</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>496</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3081555432.540609</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1775890786560819</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02553658538398249</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>475</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5285739344.702375</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.003432942762472151</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1540777727.317296</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4867883295.514005</v>
+        <v>1447049430.759499</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002860969429607682</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1877457169262448</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03654832048877525</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>723524751.0919415</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6594641424.885223</v>
+        <v>5384673580.744794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003045706391734366</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.09578467959158808</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04676489061245702</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2692336699.282164</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4236379109.326856</v>
+        <v>3310328788.017969</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003075777277459994</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1911528644100206</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03352196362446029</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1655164496.595453</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7428144119.307145</v>
+        <v>2276151727.466048</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003803115679100634</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
+        <v>0.1695379118593216</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.032417239277188</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1138075912.209558</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4721067667.925535</v>
+        <v>2094909747.098881</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003950649843124083</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1438357507453483</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.036795102475752</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1047454945.587059</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8681410181.183039</v>
+        <v>3596892841.303865</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00580725814204751</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.07223956388119031</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0335083020637006</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1798446500.703724</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4882647146.359925</v>
+        <v>5242617304.795177</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003927583760256336</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1218365769660751</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03088680483561637</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2621308775.466634</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5570388262.327884</v>
+        <v>4085940604.044306</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005133649643043768</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>5</v>
+        <v>0.1711169940589279</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02285593939941564</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2042970315.279493</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5312902741.751012</v>
+        <v>5009268120.471952</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002991625172010702</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4</v>
+        <v>0.1467929562315517</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03342645382264552</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2504634087.639199</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6778123392.766636</v>
+        <v>2756347777.748229</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00446958671540143</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.06303075474826932</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04500746115604301</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1378173927.497081</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>496</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4638278008.052916</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.09928653686421347</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03582765860664092</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>462</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6669336688.421903</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.00255888281283966</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2319139038.253199</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6394653364.232738</v>
+        <v>2072301809.897396</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001184373953293422</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
+        <v>0.1817774009303116</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05358541645849143</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1036150918.999441</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6079017601.967261</v>
+        <v>3580517886.934979</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003094241446297671</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.09720772897488886</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03652157953956071</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1790258957.910942</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4687064256.474537</v>
+        <v>5357319619.068669</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003070194690474375</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1566445020530628</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02387676036809505</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2678659941.593449</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7022688432.553399</v>
+        <v>1482178380.614989</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001780678278776122</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
+        <v>0.06702276616397432</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04079555848135422</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>741089219.9197454</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5132845475.988162</v>
+        <v>3511343054.048498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001202577068975412</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.08640872281737227</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04393886948243012</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1755671475.96577</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6096660928.894635</v>
+        <v>3131387240.51322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00473481757262603</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>6</v>
+        <v>0.1205112207746711</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02929598568109826</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1565693674.010419</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7086648122.133828</v>
+        <v>1737154370.337618</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003507829285754643</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
+        <v>0.1022654152813034</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02748692923511621</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>868577173.804654</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5446489829.498931</v>
+        <v>4795527987.383537</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002650159485529385</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08971651659924729</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0234876122384213</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2397764011.529113</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5583543588.951151</v>
+        <v>1568672521.614482</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005578416999783109</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
+        <v>0.1322501761150489</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03024482067366497</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>784336258.3934271</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5361917417.483968</v>
+        <v>2968538828.116394</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003402304174726476</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
+        <v>0.1144574022050486</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04903554133878347</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1484269453.335568</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6545913203.983241</v>
+        <v>1278314102.539047</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001630563217504597</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
+        <v>0.1397073875567557</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03098368460568635</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>639157046.5343034</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7599848833.790918</v>
+        <v>4112816623.764577</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002193601103083772</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>8</v>
+        <v>0.08434628145959484</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02758911622623414</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2056408316.718112</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6205288315.093089</v>
+        <v>4085795787.898528</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003476763020349067</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.09355020644523147</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02769127006505097</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2042897860.088947</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6553164809.463809</v>
+        <v>3433149099.017417</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004281125787963217</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.2060045639485981</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02532500038838932</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1716574620.631933</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9385928703.662432</v>
+        <v>1758643212.185447</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002926890874472797</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.1260470809141691</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03139722499673103</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>879321561.0712382</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4797060957.787363</v>
+        <v>2595099836.401172</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005295765685487655</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6</v>
+        <v>0.093712957312409</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04620996690382987</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1297549835.79479</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4249748302.04154</v>
+        <v>3524064769.706665</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003359438657800382</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1376274003480261</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04379095896005444</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1762032502.570892</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5803955796.520426</v>
+        <v>2215167795.092099</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002332310494197025</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.1133466844189257</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02176593629764315</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1107583954.855551</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4761656286.832875</v>
+        <v>1310321395.569807</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001486049604272936</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1579564015265635</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04245668826037313</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>655160781.4068019</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8056188945.081861</v>
+        <v>3299370084.528062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004793539379894016</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5</v>
+        <v>0.1108793617745799</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02833810033705687</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1649685102.049622</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7320209129.157723</v>
+        <v>2623814752.385752</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004807619936277037</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
+        <v>0.1500796587367579</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03536499761477043</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1311907441.648794</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5831595305.318403</v>
+        <v>1372587883.771746</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00317224305895364</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1383747200016916</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03516576705385165</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>686293897.0053415</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6027333095.289511</v>
+        <v>1811227494.584399</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003030561568633897</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6</v>
+        <v>0.1794485672306882</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03940738728034363</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>905613744.449288</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3416079077.282373</v>
+        <v>2423722831.859994</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002687726400187991</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08589430092068416</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03270749966690338</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1211861393.865518</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6814322477.626888</v>
+        <v>3287237013.336121</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00145684011884629</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>7</v>
+        <v>0.1202952925481929</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04922631851439128</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1643618553.142473</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7344338992.966779</v>
+        <v>2132981415.852011</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001034589905469296</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
+        <v>0.1241114595285554</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03004287246116212</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1066490723.334651</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7615543508.670199</v>
+        <v>2912731006.435134</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002689432641329245</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
+        <v>0.1122835520078904</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04940517019937335</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1456365509.031752</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>10013306423.88003</v>
+        <v>2278546670.896024</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003350055553398701</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>6</v>
+        <v>0.1136320241012979</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03627191658384155</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1139273292.52387</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7241118447.663916</v>
+        <v>4001156740.922431</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00552646227728694</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>5</v>
+        <v>0.1155476434606253</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02923515912294348</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2000578426.692049</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7233292022.934181</v>
+        <v>2494205884.739056</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004570991919824154</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>8</v>
+        <v>0.08055650088904255</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02362319847409351</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1247102892.48305</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3018540628.626942</v>
+        <v>2963304235.091407</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005983225701582338</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1064474700727086</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02430732790752091</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1481652100.595346</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4071216780.610577</v>
+        <v>3829237870.601748</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003563101962104314</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.141458279814713</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01705473733932307</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1914618992.081547</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8204104136.598278</v>
+        <v>2589867864.108909</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001672086465891578</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>7</v>
+        <v>0.1575326631345957</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05460711411061211</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1294933966.684003</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2458436067.713171</v>
+        <v>2379367801.369286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1094392274462869</v>
+        <v>0.06902707181025575</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03175424247817887</v>
+        <v>0.03603497387691823</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1229218090.857898</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2635986426.113316</v>
+        <v>2140921869.045951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1769989275107353</v>
+        <v>0.1117274667951654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04838523932305682</v>
+        <v>0.0473208910467153</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1317993351.310648</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3264412925.969068</v>
+        <v>4300863582.922912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1403015248969375</v>
+        <v>0.1114655888778133</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03039341068312781</v>
+        <v>0.02651930124760429</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1632206424.770184</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4103173517.995293</v>
+        <v>2726415389.997056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1109078101723285</v>
+        <v>0.08610945605595606</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0461988659961966</v>
+        <v>0.0358627068552137</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2051586755.708133</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1897868830.700137</v>
+        <v>2710416348.152341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1393935513939126</v>
+        <v>0.1126757953577446</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05277617136196187</v>
+        <v>0.04287113121958711</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>948934455.6584566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1930267196.471051</v>
+        <v>2499085719.214645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08607093245495592</v>
+        <v>0.09774459063255862</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04310332485678802</v>
+        <v>0.03409480789566292</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>965133665.8770958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2809312858.752296</v>
+        <v>3619216481.78811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1981197011105551</v>
+        <v>0.1440255005100403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02693183968028647</v>
+        <v>0.02953940663121243</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1404656467.152792</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2201076806.080257</v>
+        <v>1582052328.730302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1533556898878306</v>
+        <v>0.1983086227339871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02410854477701655</v>
+        <v>0.02679603515655271</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1100538401.515891</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5916252411.923697</v>
+        <v>5529856367.254216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2103248407255426</v>
+        <v>0.2137142097383892</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03405859099813557</v>
+        <v>0.04441510417055838</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2958126375.916579</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4204788211.213644</v>
+        <v>3578981416.040054</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1734941746676882</v>
+        <v>0.158720208722915</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03567404061117493</v>
+        <v>0.03860884718524065</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2102394132.375719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2789345965.259657</v>
+        <v>2580066615.426781</v>
       </c>
       <c r="F12" t="n">
-        <v>0.197058932197836</v>
+        <v>0.1779773767967671</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03507428548711403</v>
+        <v>0.04970278690444011</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1394672981.1108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4464564653.127572</v>
+        <v>4016966095.070347</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08203125817852711</v>
+        <v>0.1009310532836119</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02361309363553</v>
+        <v>0.02699553100459288</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2232282357.635618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3305932384.311277</v>
+        <v>2549175812.398958</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1618859785903502</v>
+        <v>0.1182293013677872</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03355977377257434</v>
+        <v>0.03984154994077502</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1652966204.158881</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1178258298.320037</v>
+        <v>1275477173.12676</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08851302414194571</v>
+        <v>0.06599822266393769</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03616059241048201</v>
+        <v>0.04744326403522652</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>589129161.4598742</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2778804943.774283</v>
+        <v>1944349076.595063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.079835271418865</v>
+        <v>0.1119263218466352</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03230417476643956</v>
+        <v>0.05110459932711806</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1389402477.49179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4174033170.977697</v>
+        <v>4951711923.452467</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1202676131282979</v>
+        <v>0.1618340705921611</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04257613087437041</v>
+        <v>0.05172733774295968</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2087016611.225858</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3582917886.29879</v>
+        <v>2681177906.01474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1504135393334785</v>
+        <v>0.1160502406038846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03029604619767816</v>
+        <v>0.02276709987736379</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1791458930.899239</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252691519.825645</v>
+        <v>1049671414.133303</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1864812074184752</v>
+        <v>0.1314871814504687</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01677234997839008</v>
+        <v>0.02289403766812414</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>626345850.3981891</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2596225519.500026</v>
+        <v>2381357278.519835</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1024265610861751</v>
+        <v>0.1249435362583177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02107896807468741</v>
+        <v>0.02736284605230416</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1298112722.339967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1930019022.227493</v>
+        <v>2302356139.887119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08790163399308151</v>
+        <v>0.07664401217321315</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02813952014697849</v>
+        <v>0.02782859614363507</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>965009553.4399555</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2746219584.827031</v>
+        <v>3414828033.025422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1230866934964319</v>
+        <v>0.1050089098651977</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05518435550715886</v>
+        <v>0.03861061624061169</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1373109868.900574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1513689375.369474</v>
+        <v>1150304195.450907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1679292871152111</v>
+        <v>0.1527679686740173</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03468429786836379</v>
+        <v>0.03591355110109064</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>756844671.032195</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2520538084.146882</v>
+        <v>3637401368.148443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.149681487958802</v>
+        <v>0.09522433079102807</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03117876907320704</v>
+        <v>0.02996234973395071</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1260269109.327486</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>978267545.2160425</v>
+        <v>1405570568.425742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1221149049005606</v>
+        <v>0.09858878504731182</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01919236974625036</v>
+        <v>0.02181653571363646</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>489133841.4115531</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1222987142.065315</v>
+        <v>1200410215.431404</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08546084648217875</v>
+        <v>0.08676735262016828</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03884050259928536</v>
+        <v>0.03665226228588027</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>611493597.4621013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3139009748.384805</v>
+        <v>4638780268.520891</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1125853149981581</v>
+        <v>0.1364007036705779</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01710544401119489</v>
+        <v>0.02439264925338316</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1569504926.872574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3714943956.897671</v>
+        <v>2837279201.072493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126180610727952</v>
+        <v>0.1479277991665287</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04495870215629567</v>
+        <v>0.04685429999759859</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1857472051.447009</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5808717594.139717</v>
+        <v>3738340282.428871</v>
       </c>
       <c r="F29" t="n">
-        <v>0.101544171800887</v>
+        <v>0.1137281250944657</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0449013461404098</v>
+        <v>0.03816570704009711</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2904358688.02619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1878789106.025434</v>
+        <v>2228172405.448776</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197188613531794</v>
+        <v>0.09890716547755497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03941807068521059</v>
+        <v>0.02898803241509236</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>939394576.4214302</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>946823750.645076</v>
+        <v>1352689920.00064</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06771147335409579</v>
+        <v>0.07197716159751685</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04290198500044794</v>
+        <v>0.0390837359805262</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>473411886.0830061</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1336079478.89649</v>
+        <v>1622851337.411239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09864885666594289</v>
+        <v>0.1067503391362526</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03439183581443063</v>
+        <v>0.03707012292622567</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>668039773.5739634</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3030174474.498534</v>
+        <v>2627853967.935695</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1413365431884991</v>
+        <v>0.1534390295760572</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05717846169551068</v>
+        <v>0.05743048996869576</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1515087230.05723</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1531979782.529495</v>
+        <v>1080766104.764637</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1131033378308422</v>
+        <v>0.0902163549568509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02048512558476855</v>
+        <v>0.02079730127711782</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>765989841.4805019</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>986025013.7355906</v>
+        <v>1146955624.908347</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09018699460792769</v>
+        <v>0.102316470053681</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03449099678484274</v>
+        <v>0.03222120469689932</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>493012528.2629215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2729158395.955779</v>
+        <v>3057636799.470679</v>
       </c>
       <c r="F36" t="n">
-        <v>0.129727534246642</v>
+        <v>0.1575992466993608</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01844692465183494</v>
+        <v>0.02699138483112419</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1364579201.345072</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2299695988.472673</v>
+        <v>2079202645.758234</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09263131681309571</v>
+        <v>0.1004793477123822</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03957583064214737</v>
+        <v>0.03081063478304726</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1149848062.494363</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2076103757.728495</v>
+        <v>1634398512.650985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08512579285375148</v>
+        <v>0.09268986460269661</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03353834464787771</v>
+        <v>0.02697096380009603</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1038051846.490445</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1393626147.279876</v>
+        <v>1700230523.471798</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1241680955670943</v>
+        <v>0.122802250993496</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0284130856015256</v>
+        <v>0.02491070165702067</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>696813159.9473598</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1442472901.980386</v>
+        <v>1348717722.720114</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1268573325390521</v>
+        <v>0.1345647578498358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04084178916444436</v>
+        <v>0.03657821526366978</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>721236431.3164599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2416877155.009864</v>
+        <v>2383689038.348171</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1168181078916425</v>
+        <v>0.1067749865882101</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03394797640184002</v>
+        <v>0.03908404961515518</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1208438610.700047</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2841602841.639598</v>
+        <v>3741150410.707392</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1084197038556419</v>
+        <v>0.08877427428611874</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0421916825907422</v>
+        <v>0.03002545220114322</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1420801369.902494</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2339616164.200083</v>
+        <v>2149115731.131223</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1824915187018233</v>
+        <v>0.1878428157978713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01644575296990518</v>
+        <v>0.02350343217360308</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1169808146.609908</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1753553043.639551</v>
+        <v>1701585632.245702</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06903501469583705</v>
+        <v>0.08236242142317118</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02614661898230599</v>
+        <v>0.03264319940233844</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>876776578.7235171</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1930724756.471226</v>
+        <v>1608120994.067352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.190733258453077</v>
+        <v>0.1363903560946727</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04799120018532879</v>
+        <v>0.04159277666195263</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>965362361.8634161</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4493066794.915118</v>
+        <v>5210404130.371032</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1487193739463364</v>
+        <v>0.1786900638908893</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05849178091401792</v>
+        <v>0.060995250120262</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2246533394.976211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3235879546.531709</v>
+        <v>3687026700.859292</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1516201669605996</v>
+        <v>0.122823894652524</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05318161307836632</v>
+        <v>0.03608809977230999</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1617939728.755004</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4682109770.178077</v>
+        <v>2886524047.328342</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020635988544141</v>
+        <v>0.08082450922794644</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03106898118651459</v>
+        <v>0.02705118254188785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2341054879.549719</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1242280939.976528</v>
+        <v>1348342778.555423</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1302079213575907</v>
+        <v>0.1667525469766199</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03150331067097645</v>
+        <v>0.03986286700049252</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>621140541.7368587</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3941011807.279918</v>
+        <v>2570474585.115636</v>
       </c>
       <c r="F50" t="n">
-        <v>0.145408229622444</v>
+        <v>0.1760866579349769</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03962864604678139</v>
+        <v>0.04630465082927967</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1970505896.185524</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1543074947.873626</v>
+        <v>1164630575.652992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1216499989602449</v>
+        <v>0.1815216824583476</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05034055792052183</v>
+        <v>0.03966783174885604</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>771537469.7374573</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5259983561.546889</v>
+        <v>4311530745.058279</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09420280195980681</v>
+        <v>0.0926411295349315</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05527360646171617</v>
+        <v>0.04211994591460084</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2629991762.835899</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3290505963.928143</v>
+        <v>3238386472.24744</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1770819668350241</v>
+        <v>0.1654962247310105</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02291280261475087</v>
+        <v>0.03209293540071201</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1645252994.061264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4292589738.717829</v>
+        <v>3169673379.341561</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1094816293361449</v>
+        <v>0.1464570702688595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03581479521753693</v>
+        <v>0.03905472904455377</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2146294956.128423</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4239138326.779191</v>
+        <v>4779863858.026095</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2201034308162293</v>
+        <v>0.2075687617989083</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03178672655855103</v>
+        <v>0.02583236662190931</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2119569148.618819</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1764646505.436212</v>
+        <v>1708693509.747442</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222284352883813</v>
+        <v>0.1194934742906664</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04817689423276293</v>
+        <v>0.05121995002262762</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>882323255.6068619</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3081555432.540609</v>
+        <v>4000457657.407907</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1775890786560819</v>
+        <v>0.114173390585998</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02553658538398249</v>
+        <v>0.02671560135928761</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1540777727.317296</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1447049430.759499</v>
+        <v>1750985910.921856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1877457169262448</v>
+        <v>0.1354584183110732</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03654832048877525</v>
+        <v>0.0312453826439848</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>723524751.0919415</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5384673580.744794</v>
+        <v>4467170352.855897</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09578467959158808</v>
+        <v>0.1109249031198631</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04676489061245702</v>
+        <v>0.03344047281588981</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2692336699.282164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3310328788.017969</v>
+        <v>3401219460.545948</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1911528644100206</v>
+        <v>0.1616104105945975</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03352196362446029</v>
+        <v>0.02226381577753391</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1655164496.595453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2276151727.466048</v>
+        <v>2347118275.771831</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1695379118593216</v>
+        <v>0.1160238768513909</v>
       </c>
       <c r="G61" t="n">
-        <v>0.032417239277188</v>
+        <v>0.02651013347301409</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1138075912.209558</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2094909747.098881</v>
+        <v>2037600387.882533</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1438357507453483</v>
+        <v>0.1844642383185789</v>
       </c>
       <c r="G62" t="n">
-        <v>0.036795102475752</v>
+        <v>0.03372284979529971</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1047454945.587059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3596892841.303865</v>
+        <v>5559604760.452795</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07223956388119031</v>
+        <v>0.0823043348759372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0335083020637006</v>
+        <v>0.03941341176643729</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1798446500.703724</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5242617304.795177</v>
+        <v>5036562262.505413</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1218365769660751</v>
+        <v>0.1643215273631305</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03088680483561637</v>
+        <v>0.02304397270673109</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2621308775.466634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4085940604.044306</v>
+        <v>4669592078.018542</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1711169940589279</v>
+        <v>0.1540814082869038</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02285593939941564</v>
+        <v>0.0318762600411112</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2042970315.279493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5009268120.471952</v>
+        <v>5396599962.536698</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1467929562315517</v>
+        <v>0.1557786247550421</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03342645382264552</v>
+        <v>0.04217715006372436</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2504634087.639199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2756347777.748229</v>
+        <v>3052299088.219094</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06303075474826932</v>
+        <v>0.06277916121524842</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04500746115604301</v>
+        <v>0.03904168124197186</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1378173927.497081</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4638278008.052916</v>
+        <v>3679526964.650691</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09928653686421347</v>
+        <v>0.1123446005615565</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03582765860664092</v>
+        <v>0.03908924472318339</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2319139038.253199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2072301809.897396</v>
+        <v>1892899868.291044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817774009303116</v>
+        <v>0.1555951968429407</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05358541645849143</v>
+        <v>0.05471985079605421</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1036150918.999441</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3580517886.934979</v>
+        <v>2602999629.034459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09720772897488886</v>
+        <v>0.09979606246254345</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03652157953956071</v>
+        <v>0.04223445385974902</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1790258957.910942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5357319619.068669</v>
+        <v>4344907618.463393</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1566445020530628</v>
+        <v>0.1713695622024143</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02387676036809505</v>
+        <v>0.0318819690792592</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2678659941.593449</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1482178380.614989</v>
+        <v>1398926639.439116</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06702276616397432</v>
+        <v>0.06966614825997575</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04079555848135422</v>
+        <v>0.03638844764304942</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>741089219.9197454</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3511343054.048498</v>
+        <v>2586485231.806262</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08640872281737227</v>
+        <v>0.09132054287784779</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04393886948243012</v>
+        <v>0.0328697808865672</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1755671475.96577</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3131387240.51322</v>
+        <v>3009326230.048086</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1205112207746711</v>
+        <v>0.1599208298801783</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02929598568109826</v>
+        <v>0.02248974977069588</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1565693674.010419</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1737154370.337618</v>
+        <v>1654979581.183113</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1022654152813034</v>
+        <v>0.1526782162095736</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02748692923511621</v>
+        <v>0.03622541045168408</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>868577173.804654</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4795527987.383537</v>
+        <v>3261284953.637133</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08971651659924729</v>
+        <v>0.1072274841893802</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0234876122384213</v>
+        <v>0.02872093596496285</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2397764011.529113</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1568672521.614482</v>
+        <v>2209322896.094268</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1322501761150489</v>
+        <v>0.1564407538477162</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03024482067366497</v>
+        <v>0.02706553412455985</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>784336258.3934271</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2968538828.116394</v>
+        <v>3145605580.840508</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144574022050486</v>
+        <v>0.08578490653287781</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04903554133878347</v>
+        <v>0.04052731062516662</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1484269453.335568</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1278314102.539047</v>
+        <v>1718238674.296282</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1397073875567557</v>
+        <v>0.1406075364519312</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03098368460568635</v>
+        <v>0.03344029194736804</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>639157046.5343034</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4112816623.764577</v>
+        <v>5561137977.475043</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08434628145959484</v>
+        <v>0.07279697779118073</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02758911622623414</v>
+        <v>0.02606922131014543</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2056408316.718112</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4085795787.898528</v>
+        <v>4943694483.437002</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09355020644523147</v>
+        <v>0.1263383915606916</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02769127006505097</v>
+        <v>0.02109112955580921</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2042897860.088947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3433149099.017417</v>
+        <v>4341439490.08881</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2060045639485981</v>
+        <v>0.1976874921543026</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02532500038838932</v>
+        <v>0.02468060732053971</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1716574620.631933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1758643212.185447</v>
+        <v>1520002453.44695</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1260470809141691</v>
+        <v>0.1490370990070323</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03139722499673103</v>
+        <v>0.03827611461558577</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>879321561.0712382</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2595099836.401172</v>
+        <v>1814929191.171518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.093712957312409</v>
+        <v>0.1090777679495686</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04620996690382987</v>
+        <v>0.04421821243037125</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1297549835.79479</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3524064769.706665</v>
+        <v>3149766251.835138</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1376274003480261</v>
+        <v>0.1781308227659138</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04379095896005444</v>
+        <v>0.04700096904419881</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1762032502.570892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2215167795.092099</v>
+        <v>1979747469.620438</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1133466844189257</v>
+        <v>0.1106830435150853</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02176593629764315</v>
+        <v>0.02155398108802701</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
         <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1107583954.855551</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1310321395.569807</v>
+        <v>1496392088.590457</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1579564015265635</v>
+        <v>0.1195932627091348</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04245668826037313</v>
+        <v>0.03629558112585309</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>655160781.4068019</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3299370084.528062</v>
+        <v>3353518760.474275</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1108793617745799</v>
+        <v>0.1123671676028722</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02833810033705687</v>
+        <v>0.03791624734823707</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1649685102.049622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2623814752.385752</v>
+        <v>3305378800.11745</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1500796587367579</v>
+        <v>0.1473031988222924</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03536499761477043</v>
+        <v>0.02855753952228595</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1311907441.648794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1372587883.771746</v>
+        <v>1622589405.871116</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1383747200016916</v>
+        <v>0.111566463112637</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03516576705385165</v>
+        <v>0.04551598855799699</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>686293897.0053415</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1811227494.584399</v>
+        <v>1742683572.075539</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1794485672306882</v>
+        <v>0.1372653374662965</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03940738728034363</v>
+        <v>0.04010757122627129</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>905613744.449288</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2423722831.859994</v>
+        <v>2906941057.004639</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08589430092068416</v>
+        <v>0.06730378443779769</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03270749966690338</v>
+        <v>0.04052886559428637</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1211861393.865518</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3287237013.336121</v>
+        <v>4880941247.326504</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1202952925481929</v>
+        <v>0.1395586553005695</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04922631851439128</v>
+        <v>0.03901429275200211</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1643618553.142473</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2132981415.852011</v>
+        <v>2238539668.251571</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1241114595285554</v>
+        <v>0.1067104758253785</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03004287246116212</v>
+        <v>0.02889599018009995</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1066490723.334651</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2912731006.435134</v>
+        <v>3208610570.24988</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1122835520078904</v>
+        <v>0.1311758508973939</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04940517019937335</v>
+        <v>0.0530334442738672</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1456365509.031752</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2278546670.896024</v>
+        <v>2003435611.84387</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1136320241012979</v>
+        <v>0.1117515298820028</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03627191658384155</v>
+        <v>0.03320441515705017</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1139273292.52387</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4001156740.922431</v>
+        <v>3834297970.489526</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1155476434606253</v>
+        <v>0.1506970897224587</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02923515912294348</v>
+        <v>0.02468995396174909</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2000578426.692049</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2494205884.739056</v>
+        <v>3901789538.370993</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08055650088904255</v>
+        <v>0.1204760379065355</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02362319847409351</v>
+        <v>0.02065530897402228</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1247102892.48305</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2963304235.091407</v>
+        <v>2370686306.502519</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1064474700727086</v>
+        <v>0.1115276063710956</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02430732790752091</v>
+        <v>0.03413430015845893</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1481652100.595346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3829237870.601748</v>
+        <v>4297568666.46719</v>
       </c>
       <c r="F100" t="n">
-        <v>0.141458279814713</v>
+        <v>0.154536607793805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01705473733932307</v>
+        <v>0.02706538045900984</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1914618992.081547</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2589867864.108909</v>
+        <v>2883445927.676768</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1575326631345957</v>
+        <v>0.151167010503817</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05460711411061211</v>
+        <v>0.03693616699538076</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1294933966.684003</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2379367801.369286</v>
+        <v>1540321383.573038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06902707181025575</v>
+        <v>0.07548301464045265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03603497387691823</v>
+        <v>0.04326931576887687</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2140921869.045951</v>
+        <v>1722540168.535463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1117274667951654</v>
+        <v>0.1627938354200068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0473208910467153</v>
+        <v>0.04369590778615031</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4300863582.922912</v>
+        <v>3444291493.264114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1114655888778133</v>
+        <v>0.1621311966528103</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02651930124760429</v>
+        <v>0.0339192689254159</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2726415389.997056</v>
+        <v>3442821927.295454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08610945605595606</v>
+        <v>0.0925131083400778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0358627068552137</v>
+        <v>0.05017250371301004</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2710416348.152341</v>
+        <v>1977356081.388688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1126757953577446</v>
+        <v>0.09987329989940021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04287113121958711</v>
+        <v>0.05129641702744429</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2499085719.214645</v>
+        <v>2086367492.541128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09774459063255862</v>
+        <v>0.07565993214659572</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03409480789566292</v>
+        <v>0.03109609191778357</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3619216481.78811</v>
+        <v>3908699685.835246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1440255005100403</v>
+        <v>0.1360906791736213</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02953940663121243</v>
+        <v>0.03193613225956957</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1582052328.730302</v>
+        <v>1707840168.177704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1983086227339871</v>
+        <v>0.1491914073368895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02679603515655271</v>
+        <v>0.03471115686588204</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5529856367.254216</v>
+        <v>4631903045.845816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2137142097383892</v>
+        <v>0.2082770825300542</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04441510417055838</v>
+        <v>0.05359119536648285</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3578981416.040054</v>
+        <v>3158795933.073062</v>
       </c>
       <c r="F11" t="n">
-        <v>0.158720208722915</v>
+        <v>0.1581103899981983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03860884718524065</v>
+        <v>0.03203168665880861</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2580066615.426781</v>
+        <v>2798643462.817354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1779773767967671</v>
+        <v>0.1379462273989903</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04970278690444011</v>
+        <v>0.03686918326444159</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4016966095.070347</v>
+        <v>3814002541.471702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1009310532836119</v>
+        <v>0.08545186232137046</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02699553100459288</v>
+        <v>0.02810004589589807</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2549175812.398958</v>
+        <v>3544322414.284446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1182293013677872</v>
+        <v>0.1890510509862732</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03984154994077502</v>
+        <v>0.03241101346495013</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1275477173.12676</v>
+        <v>1751830209.397398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06599822266393769</v>
+        <v>0.1090847309542672</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04744326403522652</v>
+        <v>0.03402404983779903</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1944349076.595063</v>
+        <v>1894209364.357192</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119263218466352</v>
+        <v>0.07348548372038903</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05110459932711806</v>
+        <v>0.03940091200190003</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4951711923.452467</v>
+        <v>4182875090.640974</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1618340705921611</v>
+        <v>0.1575617936532216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05172733774295968</v>
+        <v>0.04538030688378655</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2681177906.01474</v>
+        <v>2435093642.244654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1160502406038846</v>
+        <v>0.1242125584701971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02276709987736379</v>
+        <v>0.02896856481441194</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1049671414.133303</v>
+        <v>1367874832.224054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1314871814504687</v>
+        <v>0.1434913460936983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02289403766812414</v>
+        <v>0.02630752713102222</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2381357278.519835</v>
+        <v>1942007701.088472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249435362583177</v>
+        <v>0.1180961911860629</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02736284605230416</v>
+        <v>0.030707883144896</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2302356139.887119</v>
+        <v>1953509290.427446</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07664401217321315</v>
+        <v>0.1011892500319831</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02782859614363507</v>
+        <v>0.039634530713275</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3414828033.025422</v>
+        <v>3401954298.707858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1050089098651977</v>
+        <v>0.1191769612306675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03861061624061169</v>
+        <v>0.03594734499130715</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1150304195.450907</v>
+        <v>1010872973.379974</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1527679686740173</v>
+        <v>0.1639475906998543</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03591355110109064</v>
+        <v>0.04785787642120235</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3637401368.148443</v>
+        <v>2987907548.843681</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09522433079102807</v>
+        <v>0.1117955833651384</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02996234973395071</v>
+        <v>0.02580808200356869</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1405570568.425742</v>
+        <v>1047554618.039199</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09858878504731182</v>
+        <v>0.07433620424651116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02181653571363646</v>
+        <v>0.02811585041317871</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1200410215.431404</v>
+        <v>1102437000.541981</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08676735262016828</v>
+        <v>0.1028970691912576</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03665226228588027</v>
+        <v>0.03511596546350856</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4638780268.520891</v>
+        <v>4207211512.303938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1364007036705779</v>
+        <v>0.1161738337611836</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02439264925338316</v>
+        <v>0.02204849565031251</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2837279201.072493</v>
+        <v>2611315064.758068</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1479277991665287</v>
+        <v>0.1121309749445168</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04685429999759859</v>
+        <v>0.03311989799577991</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3738340282.428871</v>
+        <v>4061226441.703775</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1137281250944657</v>
+        <v>0.1126225293216308</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03816570704009711</v>
+        <v>0.02838801084537865</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2228172405.448776</v>
+        <v>1605038345.291485</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09890716547755497</v>
+        <v>0.0959780506287435</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02898803241509236</v>
+        <v>0.03675962468394647</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1352689920.00064</v>
+        <v>913645027.7549764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07197716159751685</v>
+        <v>0.0913474443116777</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0390837359805262</v>
+        <v>0.05091537736011558</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1622851337.411239</v>
+        <v>1194010065.48677</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1067503391362526</v>
+        <v>0.08137167831425964</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03707012292622567</v>
+        <v>0.02586410346484311</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2627853967.935695</v>
+        <v>2917425252.835671</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534390295760572</v>
+        <v>0.1665421515493929</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05743048996869576</v>
+        <v>0.04652184996029767</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1080766104.764637</v>
+        <v>1332799066.379138</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0902163549568509</v>
+        <v>0.1125039185902791</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02079730127711782</v>
+        <v>0.01917795348172517</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1146955624.908347</v>
+        <v>1300043560.710243</v>
       </c>
       <c r="F35" t="n">
-        <v>0.102316470053681</v>
+        <v>0.07322472832262432</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03222120469689932</v>
+        <v>0.04376338959766207</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3057636799.470679</v>
+        <v>2718389085.67542</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1575992466993608</v>
+        <v>0.1429594556540268</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02699138483112419</v>
+        <v>0.01929021552721372</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2079202645.758234</v>
+        <v>2685604474.373889</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004793477123822</v>
+        <v>0.09913947495262512</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03081063478304726</v>
+        <v>0.0422124180457183</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1634398512.650985</v>
+        <v>2022211574.039661</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09268986460269661</v>
+        <v>0.08580071713466876</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02697096380009603</v>
+        <v>0.03056491430182501</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1700230523.471798</v>
+        <v>1446765822.466849</v>
       </c>
       <c r="F39" t="n">
-        <v>0.122802250993496</v>
+        <v>0.1567537214057447</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02491070165702067</v>
+        <v>0.03246125673201072</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1348717722.720114</v>
+        <v>1249312279.956475</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1345647578498358</v>
+        <v>0.1582542062441006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03657821526366978</v>
+        <v>0.05095422195574003</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2383689038.348171</v>
+        <v>2158125912.233798</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1067749865882101</v>
+        <v>0.1385210423266142</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03908404961515518</v>
+        <v>0.03809615486431396</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3741150410.707392</v>
+        <v>3116328808.138121</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08877427428611874</v>
+        <v>0.1026531698789606</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03002545220114322</v>
+        <v>0.04402906140345513</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2149115731.131223</v>
+        <v>2997335872.280935</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1878428157978713</v>
+        <v>0.1799191545534596</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02350343217360308</v>
+        <v>0.0179682694328864</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1701585632.245702</v>
+        <v>2042305954.452003</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08236242142317118</v>
+        <v>0.06655844516203142</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03264319940233844</v>
+        <v>0.03003456292566657</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1608120994.067352</v>
+        <v>1809261540.682165</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1363903560946727</v>
+        <v>0.1683053284293088</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04159277666195263</v>
+        <v>0.0441419340862827</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5210404130.371032</v>
+        <v>3537913505.520283</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1786900638908893</v>
+        <v>0.1145444251715828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.060995250120262</v>
+        <v>0.03758790221871292</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3687026700.859292</v>
+        <v>3645651321.945833</v>
       </c>
       <c r="F47" t="n">
-        <v>0.122823894652524</v>
+        <v>0.1402340422638161</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03608809977230999</v>
+        <v>0.04964396993616307</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2886524047.328342</v>
+        <v>3918763341.738043</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08082450922794644</v>
+        <v>0.06758203365822195</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02705118254188785</v>
+        <v>0.03477447220269166</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1348342778.555423</v>
+        <v>1318179041.477774</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1667525469766199</v>
+        <v>0.17872048244071</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03986286700049252</v>
+        <v>0.02983476744110993</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2570474585.115636</v>
+        <v>4123837155.384131</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760866579349769</v>
+        <v>0.1565581714301453</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04630465082927967</v>
+        <v>0.04020351215413934</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1164630575.652992</v>
+        <v>1246693658.601532</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1815216824583476</v>
+        <v>0.1246445655481218</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03966783174885604</v>
+        <v>0.05276689422635346</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4311530745.058279</v>
+        <v>3781269246.791803</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0926411295349315</v>
+        <v>0.1178890155833746</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04211994591460084</v>
+        <v>0.04180093255048786</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3238386472.24744</v>
+        <v>2989165827.533843</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1654962247310105</v>
+        <v>0.1964858525807859</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03209293540071201</v>
+        <v>0.03091103883779687</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3169673379.341561</v>
+        <v>3032658854.039429</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1464570702688595</v>
+        <v>0.1148141722042231</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03905472904455377</v>
+        <v>0.03576146016676897</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4779863858.026095</v>
+        <v>3804076008.546156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2075687617989083</v>
+        <v>0.1560526739915796</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02583236662190931</v>
+        <v>0.02677258735321668</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1708693509.747442</v>
+        <v>1505585036.244911</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1194934742906664</v>
+        <v>0.1284072682367241</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05121995002262762</v>
+        <v>0.04794040344412275</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4000457657.407907</v>
+        <v>4389124735.160482</v>
       </c>
       <c r="F57" t="n">
-        <v>0.114173390585998</v>
+        <v>0.1545037908698464</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02671560135928761</v>
+        <v>0.01930894879535852</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1750985910.921856</v>
+        <v>1695199898.54386</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1354584183110732</v>
+        <v>0.134824410894456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0312453826439848</v>
+        <v>0.03200497697929903</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4467170352.855897</v>
+        <v>3506720857.220337</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1109249031198631</v>
+        <v>0.1130488694355184</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03344047281588981</v>
+        <v>0.03477502520778348</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3401219460.545948</v>
+        <v>3321976704.77323</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1616104105945975</v>
+        <v>0.1370968229281093</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02226381577753391</v>
+        <v>0.02492618680539075</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2347118275.771831</v>
+        <v>2482725897.638978</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160238768513909</v>
+        <v>0.1503891220755591</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02651013347301409</v>
+        <v>0.02565849848065311</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2037600387.882533</v>
+        <v>1356913419.418319</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844642383185789</v>
+        <v>0.1323252042869795</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03372284979529971</v>
+        <v>0.03375413500343367</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5559604760.452795</v>
+        <v>4894503502.009789</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0823043348759372</v>
+        <v>0.1073314621327773</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03941341176643729</v>
+        <v>0.03215405073371284</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5036562262.505413</v>
+        <v>4155022074.671602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1643215273631305</v>
+        <v>0.1487759306004515</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02304397270673109</v>
+        <v>0.021564209020736</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4669592078.018542</v>
+        <v>4793153026.821285</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1540814082869038</v>
+        <v>0.1189443761427091</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0318762600411112</v>
+        <v>0.02035825589383927</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5396599962.536698</v>
+        <v>5126491253.511641</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557786247550421</v>
+        <v>0.1103925212871289</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04217715006372436</v>
+        <v>0.03496336879089023</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3052299088.219094</v>
+        <v>3000063143.717141</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06277916121524842</v>
+        <v>0.08267564509183419</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03904168124197186</v>
+        <v>0.03210350976819699</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3679526964.650691</v>
+        <v>4753969257.659247</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1123446005615565</v>
+        <v>0.1250409570531879</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03908924472318339</v>
+        <v>0.05082322507903175</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1892899868.291044</v>
+        <v>1672212112.674965</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1555951968429407</v>
+        <v>0.1636869628315581</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05471985079605421</v>
+        <v>0.05456420538944592</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2602999629.034459</v>
+        <v>2574170042.807645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09979606246254345</v>
+        <v>0.06830133942176451</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04223445385974902</v>
+        <v>0.04743553381568689</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4344907618.463393</v>
+        <v>5012600271.49157</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1713695622024143</v>
+        <v>0.1126284733036319</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0318819690792592</v>
+        <v>0.02715377652030815</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1398926639.439116</v>
+        <v>1855479622.282207</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06966614825997575</v>
+        <v>0.1003927835752877</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03638844764304942</v>
+        <v>0.043743614333924</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2586485231.806262</v>
+        <v>2492286924.8634</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09132054287784779</v>
+        <v>0.08089776223668711</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0328697808865672</v>
+        <v>0.04266678721074159</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3009326230.048086</v>
+        <v>2575301782.661755</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1599208298801783</v>
+        <v>0.1200674641989432</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02248974977069588</v>
+        <v>0.02737993654593548</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1654979581.183113</v>
+        <v>2120446255.989841</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1526782162095736</v>
+        <v>0.1244509704624734</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03622541045168408</v>
+        <v>0.02706645882230277</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3261284953.637133</v>
+        <v>4295605160.407403</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1072274841893802</v>
+        <v>0.0914146566790823</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02872093596496285</v>
+        <v>0.03167559177315322</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2209322896.094268</v>
+        <v>1430134247.23116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1564407538477162</v>
+        <v>0.1218137251878985</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02706553412455985</v>
+        <v>0.021711190854688</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3145605580.840508</v>
+        <v>4795254919.417463</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08578490653287781</v>
+        <v>0.1079818881727381</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04052731062516662</v>
+        <v>0.04834904103586126</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1718238674.296282</v>
+        <v>1820509756.051456</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1406075364519312</v>
+        <v>0.1613005432026519</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03344029194736804</v>
+        <v>0.03036647091194977</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5561137977.475043</v>
+        <v>3634397827.577021</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07279697779118073</v>
+        <v>0.0841767115533673</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02606922131014543</v>
+        <v>0.03232927502092523</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4943694483.437002</v>
+        <v>4405556445.776102</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1263383915606916</v>
+        <v>0.09364130422270095</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109112955580921</v>
+        <v>0.02878313506322836</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4341439490.08881</v>
+        <v>4306326524.921363</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1976874921543026</v>
+        <v>0.1319814210584796</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02468060732053971</v>
+        <v>0.0285151431068085</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1520002453.44695</v>
+        <v>1616123229.480308</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1490370990070323</v>
+        <v>0.152227026707923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03827611461558577</v>
+        <v>0.03268940627991516</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1814929191.171518</v>
+        <v>2083307397.70991</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1090777679495686</v>
+        <v>0.1083610574959809</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04421821243037125</v>
+        <v>0.05181972706799619</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3149766251.835138</v>
+        <v>3667925643.309481</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1781308227659138</v>
+        <v>0.1162071079162969</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04700096904419881</v>
+        <v>0.03878739923538088</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979747469.620438</v>
+        <v>2657795243.824769</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1106830435150853</v>
+        <v>0.1514798729716565</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02155398108802701</v>
+        <v>0.02451599733226495</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1496392088.590457</v>
+        <v>1269821395.992695</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1195932627091348</v>
+        <v>0.1606012737719805</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03629558112585309</v>
+        <v>0.02795338302893991</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3353518760.474275</v>
+        <v>3652047843.71763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1123671676028722</v>
+        <v>0.1445177080115946</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791624734823707</v>
+        <v>0.02568010095116504</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3305378800.11745</v>
+        <v>2901801337.692699</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1473031988222924</v>
+        <v>0.1201396008014452</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02855753952228595</v>
+        <v>0.03293617286049507</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1622589405.871116</v>
+        <v>1330507416.905827</v>
       </c>
       <c r="F90" t="n">
-        <v>0.111566463112637</v>
+        <v>0.08359312521241313</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04551598855799699</v>
+        <v>0.03469530960918168</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1742683572.075539</v>
+        <v>1722388767.682796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1372653374662965</v>
+        <v>0.1767085761326067</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04010757122627129</v>
+        <v>0.03877718795699036</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2906941057.004639</v>
+        <v>2797469787.051573</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06730378443779769</v>
+        <v>0.1012170066588838</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04052886559428637</v>
+        <v>0.04420654797688761</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4880941247.326504</v>
+        <v>3419724983.419526</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1395586553005695</v>
+        <v>0.1069609602415397</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03901429275200211</v>
+        <v>0.04900080216692089</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2238539668.251571</v>
+        <v>2216695742.062376</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1067104758253785</v>
+        <v>0.1370060821449613</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02889599018009995</v>
+        <v>0.02628343715192268</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3208610570.24988</v>
+        <v>2580307520.936499</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1311758508973939</v>
+        <v>0.1334409405736315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0530334442738672</v>
+        <v>0.05284064622122722</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2003435611.84387</v>
+        <v>2006669602.730674</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1117515298820028</v>
+        <v>0.08687303930272675</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03320441515705017</v>
+        <v>0.04468550368939457</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3834297970.489526</v>
+        <v>4217187574.233181</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1506970897224587</v>
+        <v>0.1756818853426653</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02468995396174909</v>
+        <v>0.02195390637529964</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3901789538.370993</v>
+        <v>2410911725.89684</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1204760379065355</v>
+        <v>0.08318405777019011</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02065530897402228</v>
+        <v>0.02215933278285067</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2370686306.502519</v>
+        <v>2286180671.096241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1115276063710956</v>
+        <v>0.1125276641853174</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03413430015845893</v>
+        <v>0.03031621288482871</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4297568666.46719</v>
+        <v>4338485116.579957</v>
       </c>
       <c r="F100" t="n">
-        <v>0.154536607793805</v>
+        <v>0.1474843252918634</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02706538045900984</v>
+        <v>0.01951144527096211</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2883445927.676768</v>
+        <v>3375358758.412822</v>
       </c>
       <c r="F101" t="n">
-        <v>0.151167010503817</v>
+        <v>0.186486545650372</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03693616699538076</v>
+        <v>0.04793193047158632</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_21.xlsx
+++ b/output/fit_clients/fit_round_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1540321383.573038</v>
+        <v>2457535804.961634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07548301464045265</v>
+        <v>0.08079495824699778</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04326931576887687</v>
+        <v>0.04292370406504239</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1722540168.535463</v>
+        <v>2067901367.974752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627938354200068</v>
+        <v>0.115109243793772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04369590778615031</v>
+        <v>0.04734776998566848</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3444291493.264114</v>
+        <v>4649799788.579993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1621311966528103</v>
+        <v>0.1005370868979367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0339192689254159</v>
+        <v>0.0283031236105426</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3442821927.295454</v>
+        <v>3764816440.121742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0925131083400778</v>
+        <v>0.1056648563839327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05017250371301004</v>
+        <v>0.04349017711493319</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>197.7590554760349</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1977356081.388688</v>
+        <v>1999530029.505092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09987329989940021</v>
+        <v>0.1116820215761068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05129641702744429</v>
+        <v>0.04690652991844003</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2086367492.541128</v>
+        <v>2062854483.564976</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07565993214659572</v>
+        <v>0.09870962446607202</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03109609191778357</v>
+        <v>0.04292431462506888</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3908699685.835246</v>
+        <v>2488097635.161148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1360906791736213</v>
+        <v>0.2146752201103539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03193613225956957</v>
+        <v>0.03158627250655052</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1707840168.177704</v>
+        <v>1926514536.188115</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1491914073368895</v>
+        <v>0.1500130981448812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03471115686588204</v>
+        <v>0.02894843071496576</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4631903045.845816</v>
+        <v>5112958346.235045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2082770825300542</v>
+        <v>0.1633353672487577</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05359119536648285</v>
+        <v>0.03820603273197353</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9614897253345</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3158795933.073062</v>
+        <v>2617926118.120254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1581103899981983</v>
+        <v>0.1158717198320206</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03203168665880861</v>
+        <v>0.04618886134104425</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>98.27829064816885</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2798643462.817354</v>
+        <v>3266818110.170608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1379462273989903</v>
+        <v>0.1415850781175472</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03686918326444159</v>
+        <v>0.04685039383267611</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3814002541.471702</v>
+        <v>5276877491.664639</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08545186232137046</v>
+        <v>0.09564949155537701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02810004589589807</v>
+        <v>0.03006584030734288</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3544322414.284446</v>
+        <v>2704153114.761611</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1890510509862732</v>
+        <v>0.1793733636694538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03241101346495013</v>
+        <v>0.04302803503925951</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1751830209.397398</v>
+        <v>1312577419.543262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1090847309542672</v>
+        <v>0.0791202986404206</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03402404983779903</v>
+        <v>0.03032810447234309</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1894209364.357192</v>
+        <v>2020862237.62035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07348548372038903</v>
+        <v>0.108166626366696</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03940091200190003</v>
+        <v>0.0485995171453486</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4182875090.640974</v>
+        <v>3662948084.812219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1575617936532216</v>
+        <v>0.1461890638775362</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04538030688378655</v>
+        <v>0.04835196494607437</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>164.9756465231228</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2435093642.244654</v>
+        <v>2681946505.812904</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242125584701971</v>
+        <v>0.1798362993203694</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02896856481441194</v>
+        <v>0.03090997155129166</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1367874832.224054</v>
+        <v>1217266538.632589</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1434913460936983</v>
+        <v>0.137693151362235</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02630752713102222</v>
+        <v>0.02209475028103265</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1942007701.088472</v>
+        <v>1799384822.406404</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1180961911860629</v>
+        <v>0.149488885247396</v>
       </c>
       <c r="G20" t="n">
-        <v>0.030707883144896</v>
+        <v>0.0276998661430783</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1953509290.427446</v>
+        <v>2203870408.779934</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1011892500319831</v>
+        <v>0.06857493595977915</v>
       </c>
       <c r="G21" t="n">
-        <v>0.039634530713275</v>
+        <v>0.04368952247153243</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3401954298.707858</v>
+        <v>2852922734.181841</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1191769612306675</v>
+        <v>0.129206192855317</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03594734499130715</v>
+        <v>0.03982072986044789</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>95.09988851203015</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1010872973.379974</v>
+        <v>1503358919.180594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1639475906998543</v>
+        <v>0.1285903906109971</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04785787642120235</v>
+        <v>0.0393438281273408</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2987907548.843681</v>
+        <v>3001645632.075306</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117955833651384</v>
+        <v>0.1262972447703668</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02580808200356869</v>
+        <v>0.03444753848974289</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n">
+        <v>110.8445796349873</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1047554618.039199</v>
+        <v>1084430577.241285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07433620424651116</v>
+        <v>0.1118045608408619</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02811585041317871</v>
+        <v>0.0192256546791522</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102437000.541981</v>
+        <v>1278435130.745521</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1028970691912576</v>
+        <v>0.09447007064696814</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03511596546350856</v>
+        <v>0.02580719152362996</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4207211512.303938</v>
+        <v>4471620495.647976</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1161738337611836</v>
+        <v>0.09772048252326779</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02204849565031251</v>
+        <v>0.02467154786362468</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2611315064.758068</v>
+        <v>3498784939.051589</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1121309749445168</v>
+        <v>0.1083611682698752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03311989799577991</v>
+        <v>0.04776594710359527</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4061226441.703775</v>
+        <v>5038725714.952065</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1126225293216308</v>
+        <v>0.1074523409178847</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02838801084537865</v>
+        <v>0.04161142907129527</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>21</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9033339881493</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1605038345.291485</v>
+        <v>2140782068.230881</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0959780506287435</v>
+        <v>0.1345426048293128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03675962468394647</v>
+        <v>0.03542444695013049</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>913645027.7549764</v>
+        <v>1438809731.039564</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0913474443116777</v>
+        <v>0.08507988417789518</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05091537736011558</v>
+        <v>0.0448444830042563</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1194010065.48677</v>
+        <v>1324020104.691528</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08137167831425964</v>
+        <v>0.1194633426580137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02586410346484311</v>
+        <v>0.03493474285106288</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2917425252.835671</v>
+        <v>2248247672.533062</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1665421515493929</v>
+        <v>0.1908604965488514</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04652184996029767</v>
+        <v>0.05789583253238967</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1332799066.379138</v>
+        <v>1190620932.779201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1125039185902791</v>
+        <v>0.108782234965605</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01917795348172517</v>
+        <v>0.02699609720921709</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1300043560.710243</v>
+        <v>1090197745.910081</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07322472832262432</v>
+        <v>0.0736296086426403</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04376338959766207</v>
+        <v>0.04266949484237915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2718389085.67542</v>
+        <v>2982375543.687582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1429594556540268</v>
+        <v>0.1531237552744633</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01929021552721372</v>
+        <v>0.02378550291349466</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2685604474.373889</v>
+        <v>2444556755.88581</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09913947495262512</v>
+        <v>0.08101193888861966</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0422124180457183</v>
+        <v>0.03544935756737937</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2022211574.039661</v>
+        <v>1604634880.538871</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08580071713466876</v>
+        <v>0.106354347687544</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03056491430182501</v>
+        <v>0.03053286060367838</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1446765822.466849</v>
+        <v>2139654529.696106</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1567537214057447</v>
+        <v>0.1813493162076876</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03246125673201072</v>
+        <v>0.02791042426219504</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1249312279.956475</v>
+        <v>1360910217.635278</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1582542062441006</v>
+        <v>0.1350937251379573</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05095422195574003</v>
+        <v>0.04717620852588127</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2158125912.233798</v>
+        <v>1862117026.846426</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1385210423266142</v>
+        <v>0.1163355996466849</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03809615486431396</v>
+        <v>0.03294363844388565</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3116328808.138121</v>
+        <v>3977764767.758031</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026531698789606</v>
+        <v>0.1061894233888179</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04402906140345513</v>
+        <v>0.03282757633233814</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>21</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2997335872.280935</v>
+        <v>2845240864.886365</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1799191545534596</v>
+        <v>0.1876754954318472</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0179682694328864</v>
+        <v>0.01948415276355319</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2042305954.452003</v>
+        <v>2201888875.715334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06655844516203142</v>
+        <v>0.07867152530318851</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03003456292566657</v>
+        <v>0.0348059681752283</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1809261540.682165</v>
+        <v>1640623631.959485</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1683053284293088</v>
+        <v>0.1609420051610599</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0441419340862827</v>
+        <v>0.0384069546388878</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3537913505.520283</v>
+        <v>3758108938.613696</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145444251715828</v>
+        <v>0.1126717978882716</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03758790221871292</v>
+        <v>0.04788178903720613</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
+        <v>188.8237384059567</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3645651321.945833</v>
+        <v>4520735582.411516</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1402340422638161</v>
+        <v>0.1241414701408301</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04964396993616307</v>
+        <v>0.05304979078321805</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.6330407536433</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3918763341.738043</v>
+        <v>3416659513.060838</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06758203365822195</v>
+        <v>0.1064979313278471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03477447220269166</v>
+        <v>0.03280835655625922</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1318179041.477774</v>
+        <v>1765648881.886329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.17872048244071</v>
+        <v>0.1252609613799157</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02983476744110993</v>
+        <v>0.03065957043766525</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4123837155.384131</v>
+        <v>2684212803.955921</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1565581714301453</v>
+        <v>0.138179288720548</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04020351215413934</v>
+        <v>0.03257518986987598</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1246693658.601532</v>
+        <v>1547456526.861352</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1246445655481218</v>
+        <v>0.1702500771481882</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05276689422635346</v>
+        <v>0.03328937752642297</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3781269246.791803</v>
+        <v>4786529550.287948</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1178890155833746</v>
+        <v>0.121946736284289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04180093255048786</v>
+        <v>0.06091708898545486</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>21</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.4912142678985</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2989165827.533843</v>
+        <v>3346145467.243605</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1964858525807859</v>
+        <v>0.1377122437697327</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03091103883779687</v>
+        <v>0.02736650629286133</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3032658854.039429</v>
+        <v>3878682788.88355</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1148141722042231</v>
+        <v>0.1095298480958783</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03576146016676897</v>
+        <v>0.04734443113149974</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3804076008.546156</v>
+        <v>3691636520.925397</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1560526739915796</v>
+        <v>0.1951941951944997</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02677258735321668</v>
+        <v>0.03228233792270813</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1505585036.244911</v>
+        <v>1189013818.072415</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1284072682367241</v>
+        <v>0.1361156612236434</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04794040344412275</v>
+        <v>0.04573421690266202</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4389124735.160482</v>
+        <v>4549821618.754288</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1545037908698464</v>
+        <v>0.1813624099194928</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01930894879535852</v>
+        <v>0.01662321357965693</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>20</v>
+      </c>
+      <c r="K57" t="n">
+        <v>201.9781925823578</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1695199898.54386</v>
+        <v>1634059307.350039</v>
       </c>
       <c r="F58" t="n">
-        <v>0.134824410894456</v>
+        <v>0.1397632642574629</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03200497697929903</v>
+        <v>0.03972250920044458</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3506720857.220337</v>
+        <v>3979889634.343631</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1130488694355184</v>
+        <v>0.1187675761265726</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03477502520778348</v>
+        <v>0.03555197407819197</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="n">
+        <v>184.1011082160727</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3321976704.77323</v>
+        <v>3638301462.096741</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1370968229281093</v>
+        <v>0.1799476391155801</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02492618680539075</v>
+        <v>0.02417900534795421</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2482725897.638978</v>
+        <v>3236797466.154411</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1503891220755591</v>
+        <v>0.142323895519146</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02565849848065311</v>
+        <v>0.02814674916659199</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1356913419.418319</v>
+        <v>1950651136.180796</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1323252042869795</v>
+        <v>0.1472429013266043</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03375413500343367</v>
+        <v>0.03332157777982005</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4894503502.009789</v>
+        <v>4959726570.526033</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1073314621327773</v>
+        <v>0.07233222400239654</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03215405073371284</v>
+        <v>0.03939917625578798</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>20</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.3045439689594</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4155022074.671602</v>
+        <v>4459047777.904696</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1487759306004515</v>
+        <v>0.1183438285710258</v>
       </c>
       <c r="G64" t="n">
-        <v>0.021564209020736</v>
+        <v>0.03065136763172403</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>21</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4793153026.821285</v>
+        <v>4595828316.229467</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1189443761427091</v>
+        <v>0.1366076492159183</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02035825589383927</v>
+        <v>0.02086194568892534</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>21</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.4385987200515</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5126491253.511641</v>
+        <v>4755933877.210047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103925212871289</v>
+        <v>0.1124986990787604</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03496336879089023</v>
+        <v>0.04863861290421877</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>21</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3000063143.717141</v>
+        <v>3367857426.998368</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08267564509183419</v>
+        <v>0.08075097924239122</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03210350976819699</v>
+        <v>0.04133662607431812</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4753969257.659247</v>
+        <v>4185715001.431396</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1250409570531879</v>
+        <v>0.1400187683520724</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05082322507903175</v>
+        <v>0.03528790218012246</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>21</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1672212112.674965</v>
+        <v>2289982983.552738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1636869628315581</v>
+        <v>0.130943062158342</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05456420538944592</v>
+        <v>0.04100650767448068</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2574170042.807645</v>
+        <v>2893949674.736311</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06830133942176451</v>
+        <v>0.09094416473031662</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04743553381568689</v>
+        <v>0.04011302231574482</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5012600271.49157</v>
+        <v>4579211818.661054</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1126284733036319</v>
+        <v>0.1708748971241097</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02715377652030815</v>
+        <v>0.02667235559305484</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>21</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.4907935002574</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1855479622.282207</v>
+        <v>1701943402.473281</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1003927835752877</v>
+        <v>0.07682232993375311</v>
       </c>
       <c r="G72" t="n">
-        <v>0.043743614333924</v>
+        <v>0.04637886221825088</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2492286924.8634</v>
+        <v>2779823377.145744</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08089776223668711</v>
+        <v>0.09972034548229972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04266678721074159</v>
+        <v>0.04112711637768488</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2575301782.661755</v>
+        <v>2462181729.680661</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1200674641989432</v>
+        <v>0.1817312628609038</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02737993654593548</v>
+        <v>0.02781904280285692</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2120446255.989841</v>
+        <v>1528427718.568662</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1244509704624734</v>
+        <v>0.1451523986103916</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02706645882230277</v>
+        <v>0.0251319764491319</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4295605160.407403</v>
+        <v>4513538654.564952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0914146566790823</v>
+        <v>0.1159407763773734</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03167559177315322</v>
+        <v>0.02251047836654593</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>21</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1430134247.23116</v>
+        <v>1855184607.953098</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1218137251878985</v>
+        <v>0.1766125158792312</v>
       </c>
       <c r="G77" t="n">
-        <v>0.021711190854688</v>
+        <v>0.02024213050763018</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4795254919.417463</v>
+        <v>4785027030.636502</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1079818881727381</v>
+        <v>0.111380124972895</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04834904103586126</v>
+        <v>0.04882072600355829</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>20</v>
+      </c>
+      <c r="K78" t="n">
+        <v>213.853775511692</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1820509756.051456</v>
+        <v>1812805352.608289</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1613005432026519</v>
+        <v>0.1263655600604905</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03036647091194977</v>
+        <v>0.03481746873605449</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3634397827.577021</v>
+        <v>4010863458.532949</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0841767115533673</v>
+        <v>0.1046165190871032</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03232927502092523</v>
+        <v>0.03389554315024974</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>20</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.5827435313881</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4405556445.776102</v>
+        <v>3296161586.62428</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09364130422270095</v>
+        <v>0.08732949869965324</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02878313506322836</v>
+        <v>0.0270601561661374</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>20</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.4579808349473</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4306326524.921363</v>
+        <v>4428457158.110904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1319814210584796</v>
+        <v>0.1616700003218215</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0285151431068085</v>
+        <v>0.02870333372546363</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>21</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1616123229.480308</v>
+        <v>2073304869.210193</v>
       </c>
       <c r="F83" t="n">
-        <v>0.152227026707923</v>
+        <v>0.1355554114071587</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03268940627991516</v>
+        <v>0.04414749176722448</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2083307397.70991</v>
+        <v>2411047038.994206</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1083610574959809</v>
+        <v>0.08830866806332889</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05181972706799619</v>
+        <v>0.03451509993927188</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3667925643.309481</v>
+        <v>2274596488.633682</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1162071079162969</v>
+        <v>0.1821534538493539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03878739923538088</v>
+        <v>0.04389511245921098</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2657795243.824769</v>
+        <v>2480970139.09148</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1514798729716565</v>
+        <v>0.1124993985296083</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02451599733226495</v>
+        <v>0.01905853984929091</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1269821395.992695</v>
+        <v>1431567254.491426</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1606012737719805</v>
+        <v>0.1243900278850186</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02795338302893991</v>
+        <v>0.02778783463372136</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3652047843.71763</v>
+        <v>2659220629.514987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1445177080115946</v>
+        <v>0.1168580174138972</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02568010095116504</v>
+        <v>0.03379811358708707</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2901801337.692699</v>
+        <v>2893720215.956246</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201396008014452</v>
+        <v>0.1373765338620538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03293617286049507</v>
+        <v>0.02604990845418739</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1330507416.905827</v>
+        <v>1676998903.517011</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08359312521241313</v>
+        <v>0.09553494741866518</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03469530960918168</v>
+        <v>0.04200772597836403</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1722388767.682796</v>
+        <v>2100862661.580617</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1767085761326067</v>
+        <v>0.1328618784546932</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03877718795699036</v>
+        <v>0.06139616654167806</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2797469787.051573</v>
+        <v>2721959047.438252</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1012170066588838</v>
+        <v>0.1028189158490602</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04420654797688761</v>
+        <v>0.03647100703531803</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3419724983.419526</v>
+        <v>3812447088.67529</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1069609602415397</v>
+        <v>0.1047291309681183</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04900080216692089</v>
+        <v>0.03811719759111175</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>21</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2216695742.062376</v>
+        <v>2064846945.957115</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1370060821449613</v>
+        <v>0.1277888358362818</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02628343715192268</v>
+        <v>0.03251162813981493</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2580307520.936499</v>
+        <v>3169947833.337867</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1334409405736315</v>
+        <v>0.1070473745361001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05284064622122722</v>
+        <v>0.0380938606390351</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2006669602.730674</v>
+        <v>1605981928.904728</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08687303930272675</v>
+        <v>0.09173924203681012</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04468550368939457</v>
+        <v>0.03454511507646623</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4217187574.233181</v>
+        <v>3293967824.024619</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1756818853426653</v>
+        <v>0.1167585501430985</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02195390637529964</v>
+        <v>0.02374676769121495</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>20</v>
+      </c>
+      <c r="K97" t="n">
+        <v>141.3140530998252</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2410911725.89684</v>
+        <v>3526821978.933882</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08318405777019011</v>
+        <v>0.0954325807999805</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02215933278285067</v>
+        <v>0.02060953110560501</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2286180671.096241</v>
+        <v>2868197050.034478</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1125276641853174</v>
+        <v>0.1214942821041785</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03031621288482871</v>
+        <v>0.0351956436582645</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4338485116.579957</v>
+        <v>4061373668.426556</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1474843252918634</v>
+        <v>0.1619138658544304</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01951144527096211</v>
+        <v>0.02400383981760005</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>20</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.9655138557007</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3375358758.412822</v>
+        <v>2677438227.032891</v>
       </c>
       <c r="F101" t="n">
-        <v>0.186486545650372</v>
+        <v>0.1371167545867025</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04793193047158632</v>
+        <v>0.0458611670577514</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
